--- a/LoLLane/ChampList.xlsx
+++ b/LoLLane/ChampList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Melonpan666\Documents\Visual Studio 2015\Projects\LoLLane\LoLLane\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Melonpan666\Documents\Visual Studio 2015\Projects\LoLLane\LoLLane\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="24480" windowHeight="11355"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15330" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="287">
   <si>
     <t>Champion</t>
     <phoneticPr fontId="2"/>
@@ -1004,7 +1004,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="darkGray">
@@ -1042,93 +1042,6 @@
         <patternFill patternType="darkGray">
           <fgColor theme="0"/>
           <bgColor rgb="FF32CD32"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFDC143C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF800080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF00BFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF800080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF00BFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF800080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF00BFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF00BFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00BFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1420,10 +1333,10 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,8 +1855,8 @@
       <c r="D18" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
+      <c r="E18" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2288,10 +2201,10 @@
         <v>272</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="3" t="s">
         <v>271</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -3360,11 +3273,11 @@
       <c r="C67" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>270</v>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -3389,8 +3302,8 @@
       <c r="C68" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D68" s="3">
-        <v>0</v>
+      <c r="D68" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
@@ -3479,8 +3392,8 @@
       <c r="D71" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
+      <c r="E71" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -3682,8 +3595,8 @@
       <c r="D78" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>270</v>
+      <c r="E78" s="3">
+        <v>0</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -3769,8 +3682,8 @@
       <c r="D81" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>272</v>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3798,8 +3711,8 @@
       <c r="D82" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
+      <c r="E82" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -3830,8 +3743,8 @@
       <c r="E83" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>272</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4143,8 +4056,8 @@
       <c r="C94" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>270</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4204,8 +4117,8 @@
       <c r="D96" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
+      <c r="E96" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4433,11 +4346,11 @@
       <c r="C104" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>273</v>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -4610,8 +4523,8 @@
       <c r="D110" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E110" s="3">
-        <v>0</v>
+      <c r="E110" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -4694,8 +4607,8 @@
       <c r="C113" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D113" s="3">
-        <v>0</v>
+      <c r="D113" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E113" s="3">
         <v>0</v>
@@ -4839,8 +4752,8 @@
       <c r="C118" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>273</v>
+      <c r="D118" s="3">
+        <v>0</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
@@ -5013,8 +4926,8 @@
       <c r="C124" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>270</v>
+      <c r="D124" s="3">
+        <v>0</v>
       </c>
       <c r="E124" s="3">
         <v>0</v>
@@ -5187,8 +5100,8 @@
       <c r="C130" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>270</v>
+      <c r="D130" s="3">
+        <v>0</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
@@ -5303,8 +5216,8 @@
       <c r="C134" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D134" s="3">
-        <v>0</v>
+      <c r="D134" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>

--- a/LoLLane/ChampList.xlsx
+++ b/LoLLane/ChampList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15330" windowHeight="11355"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="15330" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="287">
   <si>
     <t>Champion</t>
     <phoneticPr fontId="2"/>
@@ -1333,10 +1333,10 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
+      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1823,8 +1823,8 @@
       <c r="C17" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>270</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2403,8 +2403,8 @@
       <c r="C37" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>270</v>
+      <c r="D37" s="3">
+        <v>0</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -3012,8 +3012,8 @@
       <c r="C58" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3186,11 +3186,11 @@
       <c r="C64" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>270</v>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>270</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3360,8 +3360,8 @@
       <c r="C70" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
+      <c r="D70" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3592,8 +3592,8 @@
       <c r="C78" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>273</v>
+      <c r="D78" s="3">
+        <v>0</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
@@ -3708,11 +3708,11 @@
       <c r="C82" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>273</v>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>270</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E96" s="3" t="s">
         <v>273</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4549,8 +4549,8 @@
       <c r="C111" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>271</v>
+      <c r="D111" s="3">
+        <v>0</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
@@ -4665,8 +4665,8 @@
       <c r="C115" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>274</v>
+      <c r="D115" s="3">
+        <v>0</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
@@ -5216,8 +5216,8 @@
       <c r="C134" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>272</v>
+      <c r="D134" s="3">
+        <v>0</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
